--- a/global_data/day_data/002365.xlsx
+++ b/global_data/day_data/002365.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3675"/>
+  <dimension ref="A1:I3677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -106983,6 +106985,64 @@
         <v>0.3991696354612592</v>
       </c>
     </row>
+    <row r="3676" spans="1:9">
+      <c r="A3676" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B3676">
+        <v>13.04</v>
+      </c>
+      <c r="C3676">
+        <v>14.34</v>
+      </c>
+      <c r="D3676">
+        <v>13</v>
+      </c>
+      <c r="E3676">
+        <v>14.34</v>
+      </c>
+      <c r="F3676">
+        <v>76797196</v>
+      </c>
+      <c r="G3676">
+        <v>1070333208</v>
+      </c>
+      <c r="H3676">
+        <v>245560101</v>
+      </c>
+      <c r="I3676">
+        <v>0.3127429728496487</v>
+      </c>
+    </row>
+    <row r="3677" spans="1:9">
+      <c r="A3677" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B3677">
+        <v>13.2</v>
+      </c>
+      <c r="C3677">
+        <v>13.77</v>
+      </c>
+      <c r="D3677">
+        <v>12.91</v>
+      </c>
+      <c r="E3677">
+        <v>12.91</v>
+      </c>
+      <c r="F3677">
+        <v>51591800</v>
+      </c>
+      <c r="G3677">
+        <v>670182620</v>
+      </c>
+      <c r="H3677">
+        <v>245560101</v>
+      </c>
+      <c r="I3677">
+        <v>0.2100984638379832</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
